--- a/genshin/459619920821825414_2020-11-20_14-00-02.xlsx
+++ b/genshin/459619920821825414_2020-11-20_14-00-02.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2020-12-12 01:48:16</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44177.07518518518</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -618,10 +632,8 @@
           <t>3726836700</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-11-27 18:35:58</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44162.77497685186</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -681,10 +693,8 @@
           <t>3747174819</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-11-26 01:10:11</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44161.04873842592</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -748,10 +758,8 @@
           <t>3741025841</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-11-24 09:31:50</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44159.39710648148</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -827,10 +835,8 @@
           <t>3741030624</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-11-24 09:31:23</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44159.39679398148</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -902,10 +908,8 @@
           <t>3727204529</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-11-23 21:44:43</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44158.90605324074</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -981,10 +985,8 @@
           <t>3737684075</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-11-23 09:05:35</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44158.37887731481</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1060,10 +1062,8 @@
           <t>3734270662</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-11-23 01:33:50</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44158.06516203703</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1127,10 +1127,8 @@
           <t>3727329985</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-11-23 00:32:57</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44158.02288194445</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1206,10 +1204,8 @@
           <t>3736287440</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-11-22 20:54:06</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44157.87090277778</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1285,10 +1281,8 @@
           <t>3735979392</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-11-22 19:32:39</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44157.81434027778</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1360,10 +1354,8 @@
           <t>3730597111</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-11-22 17:33:16</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44157.73143518518</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1435,10 +1427,8 @@
           <t>3735468668</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-11-22 17:15:35</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44157.71915509259</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1514,10 +1504,8 @@
           <t>3734851570</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-11-22 14:09:30</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44157.58993055556</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1581,10 +1569,8 @@
           <t>3734665624</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-11-22 13:15:40</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44157.5525462963</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1648,10 +1634,8 @@
           <t>3734652301</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-11-22 13:13:02</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44157.5507175926</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1727,10 +1711,8 @@
           <t>3734270662</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-11-22 12:59:06</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44157.54104166666</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1794,10 +1776,8 @@
           <t>3727329985</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-11-22 12:49:58</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44157.53469907407</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1869,10 +1849,8 @@
           <t>3734270662</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-11-22 12:14:12</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44157.50986111111</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1940,10 +1918,8 @@
           <t>3734270662</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-11-22 12:04:20</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44157.50300925926</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2007,10 +1983,8 @@
           <t>3734270662</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-11-22 11:56:32</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44157.49759259259</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2078,10 +2052,8 @@
           <t>3734270662</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-11-22 11:36:52</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44157.48393518518</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2145,10 +2117,8 @@
           <t>3727204529</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-11-21 22:51:36</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44156.9525</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2216,10 +2186,8 @@
           <t>3729383971</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-11-21 21:05:36</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44156.87888888889</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2291,10 +2259,8 @@
           <t>3729383971</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-11-21 20:38:09</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44156.85982638889</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
@@ -2370,10 +2336,8 @@
           <t>3731571600</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-11-21 18:29:20</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44156.77037037037</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
@@ -2449,10 +2413,8 @@
           <t>3729383971</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-11-21 17:55:14</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44156.74668981481</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2524,10 +2486,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-11-21 17:34:00</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44156.73194444444</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2599,10 +2559,8 @@
           <t>3726816862</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-11-21 16:47:17</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44156.69950231481</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2674,10 +2632,8 @@
           <t>3731083901</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-11-21 16:30:00</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44156.6875</v>
       </c>
       <c r="I31" t="n">
         <v>1</v>
@@ -2742,10 +2698,8 @@
           <t>3727329985</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-11-21 16:00:32</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44156.66703703703</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2821,10 +2775,8 @@
           <t>3730989586</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-11-21 15:59:44</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44156.66648148148</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2900,10 +2852,8 @@
           <t>3730597111</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-11-21 14:57:36</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44156.62333333334</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2971,10 +2921,8 @@
           <t>3730727774</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-11-21 14:31:39</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44156.6053125</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
@@ -3042,10 +2990,8 @@
           <t>3730735540</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-11-21 14:31:32</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44156.60523148148</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3113,10 +3059,8 @@
           <t>3730592407</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-11-21 13:47:58</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44156.57497685185</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3184,10 +3128,8 @@
           <t>3730597111</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-11-21 13:47:52</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44156.5749074074</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3255,10 +3197,8 @@
           <t>3730592156</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-11-21 13:47:43</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44156.57480324074</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3326,10 +3266,8 @@
           <t>3730596669</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-11-21 13:47:26</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44156.57460648148</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3397,10 +3335,8 @@
           <t>3730591195</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-11-21 13:46:44</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44156.57412037037</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3468,10 +3404,8 @@
           <t>3730585652</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-11-21 13:42:44</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44156.57134259259</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3539,10 +3473,8 @@
           <t>3730585299</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2020-11-21 13:42:25</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44156.57112268519</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3610,10 +3542,8 @@
           <t>3726816862</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-11-21 13:42:00</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44156.57083333333</v>
       </c>
       <c r="I44" t="n">
         <v>1</v>
@@ -3681,10 +3611,8 @@
           <t>3730580610</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-11-21 13:41:52</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44156.57074074074</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
@@ -3752,10 +3680,8 @@
           <t>3727619001</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-11-21 12:53:30</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44156.53715277778</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3827,10 +3753,8 @@
           <t>3729872589</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2020-11-21 10:19:47</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44156.43040509259</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3906,10 +3830,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2020-11-21 10:07:29</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44156.42186342592</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3969,10 +3891,8 @@
           <t>3729835657</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2020-11-21 10:05:14</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44156.42030092593</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4040,10 +3960,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-11-21 09:48:39</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44156.40878472223</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4107,10 +4025,8 @@
           <t>3727204529</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-11-21 05:49:45</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44156.24288194445</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4174,10 +4090,8 @@
           <t>3727204529</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2020-11-21 05:49:19</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44156.24258101852</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4241,10 +4155,8 @@
           <t>3727204529</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2020-11-21 04:01:07</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44156.16744212963</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4312,10 +4224,8 @@
           <t>3729405321</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2020-11-21 03:54:12</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44156.16263888889</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4387,10 +4297,8 @@
           <t>3729383971</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-11-21 03:26:55</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44156.14369212963</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4462,10 +4370,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2020-11-21 02:37:53</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44156.1096412037</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4529,10 +4435,8 @@
           <t>3729311032</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2020-11-21 02:14:21</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44156.09329861111</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4608,10 +4512,8 @@
           <t>3729213072</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2020-11-21 01:22:25</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44156.05723379629</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4687,10 +4589,8 @@
           <t>3729157637</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2020-11-21 00:57:17</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44156.03978009259</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4754,10 +4654,8 @@
           <t>3728850623</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2020-11-21 00:49:40</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44156.03449074074</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4833,10 +4731,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2020-11-21 00:39:54</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44156.02770833333</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4904,10 +4800,8 @@
           <t>3728290204</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2020-11-20 23:50:18</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44155.99326388889</v>
       </c>
       <c r="I62" t="n">
         <v>1</v>
@@ -4975,10 +4869,8 @@
           <t>3727619001</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2020-11-20 23:48:10</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44155.99178240741</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5042,10 +4934,8 @@
           <t>3726958054</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2020-11-20 23:46:44</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44155.99078703704</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5109,10 +4999,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2020-11-20 23:44:38</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44155.9893287037</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5180,10 +5068,8 @@
           <t>3728860228</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2020-11-20 23:32:59</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44155.98123842593</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5247,10 +5133,8 @@
           <t>3728849116</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2020-11-20 23:32:09</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44155.98065972222</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5314,10 +5198,8 @@
           <t>3728850623</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2020-11-20 23:30:49</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44155.9797337963</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5381,10 +5263,8 @@
           <t>3728840656</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2020-11-20 23:29:37</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44155.97890046296</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5456,10 +5336,8 @@
           <t>3728829911</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2020-11-20 23:29:06</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44155.97854166666</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5531,10 +5409,8 @@
           <t>3727619001</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2020-11-20 23:25:26</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44155.97599537037</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5598,10 +5474,8 @@
           <t>3728735263</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2020-11-20 23:04:49</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44155.96167824074</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5669,10 +5543,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2020-11-20 23:00:50</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44155.95891203704</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5748,10 +5620,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2020-11-20 22:40:47</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44155.94498842592</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5827,10 +5697,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2020-11-20 22:38:51</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44155.94364583334</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5898,10 +5766,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2020-11-20 22:06:09</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44155.9209375</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5973,10 +5839,8 @@
           <t>3728432984</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2020-11-20 21:57:28</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44155.91490740741</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6044,10 +5908,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2020-11-20 21:56:47</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44155.91443287037</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6111,10 +5973,8 @@
           <t>3728435265</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2020-11-20 21:56:20</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44155.91412037037</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6186,10 +6046,8 @@
           <t>3728338177</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2020-11-20 21:35:50</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44155.89988425926</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6253,10 +6111,8 @@
           <t>3728341810</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2020-11-20 21:35:14</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44155.89946759259</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6320,10 +6176,8 @@
           <t>3728290204</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2020-11-20 21:22:43</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44155.89077546296</v>
       </c>
       <c r="I82" t="n">
         <v>1</v>
@@ -6387,10 +6241,8 @@
           <t>3727619001</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2020-11-20 20:37:30</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44155.859375</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6458,10 +6310,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2020-11-20 20:36:10</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44155.85844907408</v>
       </c>
       <c r="I84" t="n">
         <v>3</v>
@@ -6529,10 +6379,8 @@
           <t>3728035796</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2020-11-20 20:25:21</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44155.8509375</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6600,10 +6448,8 @@
           <t>3728035796</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2020-11-20 20:19:10</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44155.84664351852</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6667,10 +6513,8 @@
           <t>3726990336</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2020-11-20 20:03:44</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44155.83592592592</v>
       </c>
       <c r="I87" t="n">
         <v>1</v>
@@ -6734,10 +6578,8 @@
           <t>3727960254</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2020-11-20 19:59:57</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44155.83329861111</v>
       </c>
       <c r="I88" t="n">
         <v>1</v>
@@ -6806,10 +6648,8 @@
           <t>3727906710</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2020-11-20 19:47:34</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44155.82469907407</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6881,10 +6721,8 @@
           <t>3727329985</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2020-11-20 19:38:19</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44155.81827546296</v>
       </c>
       <c r="I90" t="n">
         <v>9</v>
@@ -6952,10 +6790,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2020-11-20 19:36:43</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44155.81716435185</v>
       </c>
       <c r="I91" t="n">
         <v>4</v>
@@ -7031,10 +6867,8 @@
           <t>3727329985</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2020-11-20 19:35:40</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44155.81643518519</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7098,10 +6932,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2020-11-20 19:20:04</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44155.80560185185</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7173,10 +7005,8 @@
           <t>3727793350</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2020-11-20 19:19:31</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44155.80521990741</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7255,10 +7085,8 @@
           <t>3727273936</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2020-11-20 19:18:20</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44155.80439814815</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7330,10 +7158,8 @@
           <t>3727777931</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2020-11-20 19:15:27</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44155.80239583334</v>
       </c>
       <c r="I96" t="n">
         <v>1</v>
@@ -7409,10 +7235,8 @@
           <t>3727204529</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2020-11-20 19:13:05</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44155.80075231481</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7476,10 +7300,8 @@
           <t>3727329985</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2020-11-20 19:04:26</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44155.79474537037</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7547,10 +7369,8 @@
           <t>3727707803</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2020-11-20 19:00:12</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44155.79180555556</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7622,10 +7442,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2020-11-20 18:54:56</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44155.78814814815</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7685,10 +7503,8 @@
           <t>3727619001</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2020-11-20 18:47:35</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44155.78304398148</v>
       </c>
       <c r="I101" t="n">
         <v>1</v>
@@ -7756,10 +7572,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2020-11-20 18:39:52</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44155.77768518519</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7831,10 +7645,8 @@
           <t>3727619001</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2020-11-20 18:39:45</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44155.77760416667</v>
       </c>
       <c r="I103" t="n">
         <v>1</v>
@@ -7898,10 +7710,8 @@
           <t>3727628345</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2020-11-20 18:39:43</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44155.77758101852</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -7974,10 +7784,8 @@
           <t>3727626483</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2020-11-20 18:38:19</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44155.7766087963</v>
       </c>
       <c r="I105" t="n">
         <v>2</v>
@@ -8050,10 +7858,8 @@
           <t>3727626094</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2020-11-20 18:38:03</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44155.77642361111</v>
       </c>
       <c r="I106" t="n">
         <v>2</v>
@@ -8125,10 +7931,8 @@
           <t>3727614518</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2020-11-20 18:36:52</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44155.77560185185</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8192,10 +7996,8 @@
           <t>3727596422</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2020-11-20 18:31:09</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44155.77163194444</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8259,10 +8061,8 @@
           <t>3727563144</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2020-11-20 18:24:50</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44155.76724537037</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8334,10 +8134,8 @@
           <t>3727547159</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2020-11-20 18:20:25</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44155.76417824074</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8405,10 +8203,8 @@
           <t>3726836700</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2020-11-20 18:20:19</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44155.7641087963</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8472,10 +8268,8 @@
           <t>3726836700</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2020-11-20 18:18:55</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44155.76313657407</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8539,10 +8333,8 @@
           <t>3727520051</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2020-11-20 18:12:19</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44155.75855324074</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8607,10 +8399,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2020-11-20 18:01:01</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44155.75070601852</v>
       </c>
       <c r="I114" t="n">
         <v>7</v>
@@ -8678,10 +8468,8 @@
           <t>3727454883</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2020-11-20 17:58:57</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44155.74927083333</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8757,10 +8545,8 @@
           <t>3727460873</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2020-11-20 17:58:44</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44155.74912037037</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8832,10 +8618,8 @@
           <t>3727204529</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2020-11-20 17:56:47</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44155.74776620371</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8911,10 +8695,8 @@
           <t>3727442564</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2020-11-20 17:54:44</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44155.7463425926</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -8990,10 +8772,8 @@
           <t>3727433961</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2020-11-20 17:53:23</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44155.7454050926</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9069,10 +8849,8 @@
           <t>3727204529</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2020-11-20 17:51:57</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44155.74440972223</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9136,10 +8914,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2020-11-20 17:46:00</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44155.74027777778</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9199,10 +8975,8 @@
           <t>3727386602</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2020-11-20 17:39:30</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44155.73576388889</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9270,10 +9044,8 @@
           <t>3727390698</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2020-11-20 17:38:53</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44155.73533564815</v>
       </c>
       <c r="I123" t="n">
         <v>2</v>
@@ -9337,10 +9109,8 @@
           <t>3727273936</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2020-11-20 17:37:47</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44155.73457175926</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9412,10 +9182,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2020-11-20 17:33:43</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44155.73174768518</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9491,10 +9259,8 @@
           <t>3727350005</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2020-11-20 17:27:11</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44155.72721064815</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9562,10 +9328,8 @@
           <t>3727341409</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2020-11-20 17:26:41</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44155.72686342592</v>
       </c>
       <c r="I127" t="n">
         <v>6</v>
@@ -9629,10 +9393,8 @@
           <t>3727329985</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2020-11-20 17:25:28</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44155.72601851852</v>
       </c>
       <c r="I128" t="n">
         <v>16</v>
@@ -9696,10 +9458,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2020-11-20 17:21:50</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44155.72349537037</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9763,10 +9523,8 @@
           <t>3727319408</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2020-11-20 17:20:54</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44155.72284722222</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9830,10 +9588,8 @@
           <t>3727315707</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2020-11-20 17:17:37</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44155.72056712963</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -9905,10 +9661,8 @@
           <t>3727254474</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2020-11-20 17:13:01</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44155.71737268518</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -9972,10 +9726,8 @@
           <t>3727281552</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2020-11-20 17:08:40</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44155.71435185185</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10048,10 +9800,8 @@
           <t>3727273936</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2020-11-20 17:07:07</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44155.71327546296</v>
       </c>
       <c r="I134" t="n">
         <v>17</v>
@@ -10119,10 +9869,8 @@
           <t>3727273779</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2020-11-20 17:06:59</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44155.71318287037</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10190,10 +9938,8 @@
           <t>3727268604</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2020-11-20 17:05:58</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44155.71247685186</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10269,10 +10015,8 @@
           <t>3727275106</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2020-11-20 17:05:40</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44155.71226851852</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10344,10 +10088,8 @@
           <t>3727271588</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2020-11-20 17:05:02</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44155.7118287037</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10415,10 +10157,8 @@
           <t>3727275106</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2020-11-20 17:04:39</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44155.7115625</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10490,10 +10230,8 @@
           <t>3727254474</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2020-11-20 17:02:07</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44155.70980324074</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10570,10 +10308,8 @@
           <t>3727256569</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2020-11-20 17:00:31</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44155.70869212963</v>
       </c>
       <c r="I141" t="n">
         <v>14</v>
@@ -10650,10 +10386,8 @@
           <t>3727248831</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2020-11-20 16:58:43</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44155.70744212963</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10725,10 +10459,8 @@
           <t>3727247443</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2020-11-20 16:57:17</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44155.70644675926</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10800,10 +10532,8 @@
           <t>3727238149</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2020-11-20 16:55:56</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44155.70550925926</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10867,10 +10597,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2020-11-20 16:50:07</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44155.70146990741</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -10938,10 +10666,8 @@
           <t>3727204763</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2020-11-20 16:44:07</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44155.69730324074</v>
       </c>
       <c r="I146" t="n">
         <v>2</v>
@@ -11017,10 +10743,8 @@
           <t>3727204529</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2020-11-20 16:43:52</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44155.69712962963</v>
       </c>
       <c r="I147" t="n">
         <v>4</v>
@@ -11096,10 +10820,8 @@
           <t>3727203359</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2020-11-20 16:42:40</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44155.69629629629</v>
       </c>
       <c r="I148" t="n">
         <v>76</v>
@@ -11175,10 +10897,8 @@
           <t>3727201240</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2020-11-20 16:40:32</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44155.69481481481</v>
       </c>
       <c r="I149" t="n">
         <v>1</v>
@@ -11246,10 +10966,8 @@
           <t>3727177677</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2020-11-20 16:34:58</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44155.69094907407</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11321,10 +11039,8 @@
           <t>3727180863</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2020-11-20 16:34:36</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44155.69069444444</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11400,10 +11116,8 @@
           <t>3727175998</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2020-11-20 16:33:09</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44155.6896875</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11479,10 +11193,8 @@
           <t>3726825415</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2020-11-20 16:32:09</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44155.68899305556</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11550,10 +11262,8 @@
           <t>3727105719</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2020-11-20 16:30:27</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44155.6878125</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11621,10 +11331,8 @@
           <t>3727163438</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2020-11-20 16:30:18</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44155.68770833333</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11696,10 +11404,8 @@
           <t>3727171534</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2020-11-20 16:29:56</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44155.6874537037</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11779,10 +11485,8 @@
           <t>3727171390</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2020-11-20 16:29:46</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44155.68733796296</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11854,10 +11558,8 @@
           <t>3727098811</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2020-11-20 16:29:37</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44155.6872337963</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11921,10 +11623,8 @@
           <t>3727160661</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2020-11-20 16:27:16</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44155.68560185185</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -11996,10 +11696,8 @@
           <t>3727098811</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2020-11-20 16:23:37</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44155.68306712963</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12067,10 +11765,8 @@
           <t>3727151343</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2020-11-20 16:23:34</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44155.68303240741</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12146,10 +11842,8 @@
           <t>3727155506</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2020-11-20 16:23:07</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44155.68271990741</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12225,10 +11919,8 @@
           <t>3727134854</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2020-11-20 16:20:42</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44155.68104166666</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12292,10 +11984,8 @@
           <t>3727132786</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2020-11-20 16:18:29</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44155.67950231482</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12373,10 +12063,8 @@
           <t>3727132217</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2020-11-20 16:17:53</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44155.67908564815</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12446,10 +12134,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2020-11-20 16:16:48</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44155.67833333334</v>
       </c>
       <c r="I166" t="n">
         <v>60</v>
@@ -12521,10 +12207,8 @@
           <t>3726825415</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2020-11-20 16:16:28</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44155.67810185185</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12588,10 +12272,8 @@
           <t>3726825415</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2020-11-20 16:15:46</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44155.67761574074</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12655,10 +12337,8 @@
           <t>3727119090</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2020-11-20 16:14:24</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44155.67666666667</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12726,10 +12406,8 @@
           <t>3727064007</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2020-11-20 16:14:04</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44155.67643518518</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12817,10 +12495,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2020-11-20 16:14:03</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44155.67642361111</v>
       </c>
       <c r="I171" t="n">
         <v>67</v>
@@ -12884,10 +12560,8 @@
           <t>3727103277</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2020-11-20 16:07:46</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44155.67206018518</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -12963,10 +12637,8 @@
           <t>3727111794</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2020-11-20 16:07:38</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44155.67196759259</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13030,10 +12702,8 @@
           <t>3727110973</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2020-11-20 16:06:40</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44155.6712962963</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13109,10 +12779,8 @@
           <t>3727102047</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2020-11-20 16:06:24</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44155.67111111111</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13189,10 +12857,8 @@
           <t>3727105719</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2020-11-20 16:05:09</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44155.67024305555</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13256,10 +12922,8 @@
           <t>3727098811</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2020-11-20 16:04:17</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44155.66964120371</v>
       </c>
       <c r="I177" t="n">
         <v>2</v>
@@ -13323,10 +12987,8 @@
           <t>3727092435</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2020-11-20 16:01:07</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44155.66744212963</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13400,10 +13062,8 @@
           <t>3726955583</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2020-11-20 16:00:26</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44155.6669675926</v>
       </c>
       <c r="I179" t="n">
         <v>1</v>
@@ -13475,10 +13135,8 @@
           <t>3727095361</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2020-11-20 16:00:11</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44155.66679398148</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13550,10 +13208,8 @@
           <t>3727095224</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2020-11-20 16:00:01</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44155.66667824074</v>
       </c>
       <c r="I181" t="n">
         <v>1</v>
@@ -13621,10 +13277,8 @@
           <t>3727084799</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:59:30</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44155.66631944444</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13700,10 +13354,8 @@
           <t>3726946618</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:58:41</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44155.66575231482</v>
       </c>
       <c r="I183" t="n">
         <v>1</v>
@@ -13771,10 +13423,8 @@
           <t>3727074750</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:57:50</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44155.66516203704</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13850,10 +13500,8 @@
           <t>3727078471</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:56:19</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44155.6641087963</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13925,10 +13573,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:56:13</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44155.66403935185</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -13992,10 +13638,8 @@
           <t>3727077701</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:55:23</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44155.66346064815</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14091,10 +13735,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:53:39</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44155.66225694444</v>
       </c>
       <c r="I188" t="n">
         <v>1</v>
@@ -14158,10 +13800,8 @@
           <t>3727071326</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:53:32</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44155.66217592593</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14237,10 +13877,8 @@
           <t>3727064007</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:50:59</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44155.6604050926</v>
       </c>
       <c r="I190" t="n">
         <v>14</v>
@@ -14304,10 +13942,8 @@
           <t>3727062656</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:49:19</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44155.65924768519</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14383,10 +14019,8 @@
           <t>3727057111</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:48:16</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44155.65851851852</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14450,10 +14084,8 @@
           <t>3727056800</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:47:52</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44155.65824074074</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14521,10 +14153,8 @@
           <t>3727055716</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:46:32</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44155.65731481482</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14596,10 +14226,8 @@
           <t>3727049923</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:45:55</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44155.65688657408</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14663,10 +14291,8 @@
           <t>3727044914</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:45:31</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44155.65660879629</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14730,10 +14356,8 @@
           <t>3727049459</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:45:20</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44155.65648148148</v>
       </c>
       <c r="I197" t="n">
         <v>2</v>
@@ -14801,10 +14425,8 @@
           <t>3727052711</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:44:31</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44155.65591435185</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14880,10 +14502,8 @@
           <t>3727048710</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:44:22</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44155.65581018518</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14959,10 +14579,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:41:03</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44155.65350694444</v>
       </c>
       <c r="I200" t="n">
         <v>2</v>
@@ -15034,10 +14652,8 @@
           <t>3727040164</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:39:15</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44155.65225694444</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15113,10 +14729,8 @@
           <t>3727034416</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:39:09</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44155.6521875</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15180,10 +14794,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:39:06</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44155.65215277778</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15251,10 +14863,8 @@
           <t>3727037300</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:37:41</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44155.65116898148</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15331,10 +14941,8 @@
           <t>3727032663</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:36:59</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44155.65068287037</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15410,10 +15018,8 @@
           <t>3727028398</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:36:55</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44155.65063657407</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15481,10 +15087,8 @@
           <t>3727028288</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:36:46</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44155.65053240741</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15552,10 +15156,8 @@
           <t>3727036544</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:36:45</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44155.65052083333</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15628,10 +15230,8 @@
           <t>3727032272</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:36:31</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44155.65035879629</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15699,10 +15299,8 @@
           <t>3726825415</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:36:21</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44155.65024305556</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15778,10 +15376,8 @@
           <t>3727027869</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:36:16</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44155.65018518519</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15849,10 +15445,8 @@
           <t>3727027380</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:35:36</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44155.64972222222</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15928,10 +15522,8 @@
           <t>3727027334</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:35:32</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44155.64967592592</v>
       </c>
       <c r="I213" t="n">
         <v>3</v>
@@ -16018,10 +15610,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:35:28</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44155.64962962963</v>
       </c>
       <c r="I214" t="n">
         <v>58</v>
@@ -16089,10 +15679,8 @@
           <t>3727026957</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:35:02</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44155.6493287037</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16164,10 +15752,8 @@
           <t>3727030386</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:34:15</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44155.64878472222</v>
       </c>
       <c r="I216" t="n">
         <v>2</v>
@@ -16244,10 +15830,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:34:11</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44155.64873842592</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16315,10 +15899,8 @@
           <t>3727019521</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:33:08</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44155.64800925926</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16390,10 +15972,8 @@
           <t>3727025306</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:32:50</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44155.64780092592</v>
       </c>
       <c r="I219" t="n">
         <v>1</v>
@@ -16469,10 +16049,8 @@
           <t>3726825415</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:32:34</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44155.64761574074</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16540,10 +16118,8 @@
           <t>3727014448</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:31:41</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44155.64700231481</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16619,10 +16195,8 @@
           <t>3727021617</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:30:30</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44155.64618055556</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16690,10 +16264,8 @@
           <t>3727016760</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:29:41</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44155.64561342593</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16769,10 +16341,8 @@
           <t>3727002530</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:28:37</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44155.64487268519</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16848,10 +16418,8 @@
           <t>3727010943</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:26:58</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44155.64372685185</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16923,10 +16491,8 @@
           <t>3727003071</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:25:08</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44155.6424537037</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -17003,10 +16569,8 @@
           <t>3727002530</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:24:30</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44155.64201388889</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17074,10 +16638,8 @@
           <t>3727001320</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:23:00</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44155.64097222222</v>
       </c>
       <c r="I228" t="n">
         <v>1</v>
@@ -17149,10 +16711,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:20:52</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44155.63949074074</v>
       </c>
       <c r="I229" t="n">
         <v>1</v>
@@ -17220,10 +16780,8 @@
           <t>3726956255</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:19:23</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44155.63846064815</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17292,10 +16850,8 @@
           <t>3726990336</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:16:05</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44155.63616898148</v>
       </c>
       <c r="I231" t="n">
         <v>19</v>
@@ -17371,10 +16927,8 @@
           <t>3726974791</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:15:05</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44155.63547453703</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17446,10 +17000,8 @@
           <t>3726974127</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:14:15</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44155.63489583333</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17517,10 +17069,8 @@
           <t>3726978874</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:14:13</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44155.63487268519</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17592,10 +17142,8 @@
           <t>3726966693</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:13:12</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44155.63416666666</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17671,10 +17219,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:11:40</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44155.63310185185</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17738,10 +17284,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:11:08</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44155.63273148148</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17805,10 +17349,8 @@
           <t>3726975845</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:10:26</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44155.63224537037</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17880,10 +17422,8 @@
           <t>3726959214</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:08:08</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44155.63064814815</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17959,10 +17499,8 @@
           <t>3726952513</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:07:58</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44155.63053240741</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -18026,10 +17564,8 @@
           <t>3726966693</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:07:58</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44155.63053240741</v>
       </c>
       <c r="I241" t="n">
         <v>1</v>
@@ -18101,10 +17637,8 @@
           <t>3726966355</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:07:29</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44155.63019675926</v>
       </c>
       <c r="I242" t="n">
         <v>1</v>
@@ -18172,10 +17706,8 @@
           <t>3726963028</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:06:49</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44155.6297337963</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18243,10 +17775,8 @@
           <t>3726958054</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:06:42</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44155.62965277778</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18318,10 +17848,8 @@
           <t>3726954830</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:05:23</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44155.62873842593</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18397,10 +17925,8 @@
           <t>3726956255</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:04:26</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44155.6280787037</v>
       </c>
       <c r="I246" t="n">
         <v>1</v>
@@ -18468,10 +17994,8 @@
           <t>3726955583</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:03:33</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44155.62746527778</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18540,10 +18064,8 @@
           <t>3726952513</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:02:09</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44155.62649305556</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18615,10 +18137,8 @@
           <t>3726952207</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:01:40</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44155.62615740741</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18690,10 +18210,8 @@
           <t>3726943685</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:01:09</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44155.62579861111</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18769,10 +18287,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:00:44</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44155.62550925926</v>
       </c>
       <c r="I251" t="n">
         <v>205</v>
@@ -18844,10 +18360,8 @@
           <t>3726948360</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:00:42</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44155.62548611111</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18919,10 +18433,8 @@
           <t>3726943252</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:00:35</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44155.62540509259</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18998,10 +18510,8 @@
           <t>3726943067</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:00:19</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44155.62521990741</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -19077,10 +18587,8 @@
           <t>3726946412</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:58:11</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44155.62373842593</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19156,10 +18664,8 @@
           <t>3726940209</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:56:32</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44155.62259259259</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19231,10 +18737,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:56:16</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44155.62240740741</v>
       </c>
       <c r="I257" t="n">
         <v>3</v>
@@ -19294,10 +18798,8 @@
           <t>3726919729</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:56:01</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44155.6222337963</v>
       </c>
       <c r="I258" t="n">
         <v>3</v>
@@ -19365,10 +18867,8 @@
           <t>3726929296</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:55:17</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44155.62172453704</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19444,10 +18944,8 @@
           <t>3726936963</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:54:26</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44155.62113425926</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19523,10 +19021,8 @@
           <t>3726931556</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:54:17</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44155.6210300926</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19594,10 +19090,8 @@
           <t>3726932742</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:53:24</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44155.62041666666</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19673,10 +19167,8 @@
           <t>3726936186</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:53:23</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44155.6204050926</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19748,10 +19240,8 @@
           <t>3726927697</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:53:05</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44155.62019675926</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19823,10 +19313,8 @@
           <t>3726935925</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:53:01</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44155.62015046296</v>
       </c>
       <c r="I265" t="n">
         <v>2</v>
@@ -19898,10 +19386,8 @@
           <t>3726931556</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:52:36</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44155.61986111111</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19969,10 +19455,8 @@
           <t>3726932024</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:52:29</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44155.61978009259</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -20044,10 +19528,8 @@
           <t>3726919729</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:52:22</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44155.61969907407</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -20117,10 +19599,8 @@
           <t>3726926888</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:52:04</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44155.61949074074</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20197,10 +19677,8 @@
           <t>3726931556</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:51:53</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44155.61936342593</v>
       </c>
       <c r="I270" t="n">
         <v>1</v>
@@ -20268,10 +19746,8 @@
           <t>3726926202</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:51:09</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44155.61885416666</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20343,10 +19819,8 @@
           <t>3726925915</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:50:46</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44155.61858796296</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20418,10 +19892,8 @@
           <t>3726923945</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:50:22</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44155.61831018519</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20493,10 +19965,8 @@
           <t>3726919821</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:49:37</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44155.61778935185</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20572,10 +20042,8 @@
           <t>3726922462</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:48:19</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44155.61688657408</v>
       </c>
       <c r="I275" t="n">
         <v>2</v>
@@ -20651,10 +20119,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:48:06</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44155.61673611111</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20726,10 +20192,8 @@
           <t>3726918398</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:47:49</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44155.61653935185</v>
       </c>
       <c r="I277" t="n">
         <v>1</v>
@@ -20805,10 +20269,8 @@
           <t>3726922059</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:47:43</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44155.61646990741</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20884,10 +20346,8 @@
           <t>3726921673</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:47:09</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44155.61607638889</v>
       </c>
       <c r="I279" t="n">
         <v>3</v>
@@ -20964,10 +20424,8 @@
           <t>3726921582</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:47:03</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44155.61600694444</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -21043,10 +20501,8 @@
           <t>3726916511</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:45:21</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44155.61482638889</v>
       </c>
       <c r="I281" t="n">
         <v>2</v>
@@ -21110,10 +20566,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:43:49</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44155.61376157407</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -21181,10 +20635,8 @@
           <t>3726825415</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:41:33</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44155.6121875</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21248,10 +20700,8 @@
           <t>3726907447</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:41:17</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44155.61200231482</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21328,10 +20778,8 @@
           <t>3726902635</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:40:17</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44155.61130787037</v>
       </c>
       <c r="I285" t="n">
         <v>2</v>
@@ -21407,10 +20855,8 @@
           <t>3726905686</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:38:50</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44155.61030092592</v>
       </c>
       <c r="I286" t="n">
         <v>1</v>
@@ -21486,10 +20932,8 @@
           <t>3726896705</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:38:16</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44155.60990740741</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21553,10 +20997,8 @@
           <t>3726889376</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:36:05</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44155.60839120371</v>
       </c>
       <c r="I288" t="n">
         <v>1</v>
@@ -21635,10 +21077,8 @@
           <t>3726884663</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:35:37</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44155.60806712963</v>
       </c>
       <c r="I289" t="n">
         <v>2</v>
@@ -21706,10 +21146,8 @@
           <t>3726884586</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:35:31</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44155.60799768518</v>
       </c>
       <c r="I290" t="n">
         <v>1</v>
@@ -21785,10 +21223,8 @@
           <t>3726893177</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:35:18</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44155.60784722222</v>
       </c>
       <c r="I291" t="n">
         <v>1</v>
@@ -21864,10 +21300,8 @@
           <t>3726888577</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:35:00</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44155.60763888889</v>
       </c>
       <c r="I292" t="n">
         <v>1</v>
@@ -21943,10 +21377,8 @@
           <t>3726888496</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:34:54</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44155.60756944444</v>
       </c>
       <c r="I293" t="n">
         <v>1</v>
@@ -22022,10 +21454,8 @@
           <t>3726882461</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:32:45</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44155.60607638889</v>
       </c>
       <c r="I294" t="n">
         <v>1</v>
@@ -22097,10 +21527,8 @@
           <t>3726882429</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:32:41</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44155.60603009259</v>
       </c>
       <c r="I295" t="n">
         <v>1</v>
@@ -22176,10 +21604,8 @@
           <t>3726891075</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:32:27</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44155.60586805556</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -22243,10 +21669,8 @@
           <t>3726886317</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:32:12</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44155.60569444444</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22322,10 +21746,8 @@
           <t>3726890636</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:31:49</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44155.60542824074</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22394,10 +21816,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:31:31</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44155.6052199074</v>
       </c>
       <c r="I299" t="n">
         <v>8</v>
@@ -22473,10 +21893,8 @@
           <t>3726890138</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:31:08</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44155.6049537037</v>
       </c>
       <c r="I300" t="n">
         <v>1</v>
@@ -22548,10 +21966,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:30:12</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44155.60430555556</v>
       </c>
       <c r="I301" t="n">
         <v>8</v>
@@ -22615,10 +22031,8 @@
           <t>3726879300</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:30:01</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44155.60417824074</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22686,10 +22100,8 @@
           <t>3726874360</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:29:45</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44155.60399305556</v>
       </c>
       <c r="I303" t="n">
         <v>1</v>
@@ -22761,10 +22173,8 @@
           <t>3726874281</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:29:39</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44155.60392361111</v>
       </c>
       <c r="I304" t="n">
         <v>1</v>
@@ -22841,10 +22251,8 @@
           <t>3726836700</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:29:30</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44155.60381944444</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22912,10 +22320,8 @@
           <t>3726873638</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:28:48</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44155.60333333333</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22991,10 +22397,8 @@
           <t>3726869365</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:28:42</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44155.60326388889</v>
       </c>
       <c r="I307" t="n">
         <v>1</v>
@@ -23058,10 +22462,8 @@
           <t>3726873405</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:28:32</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44155.60314814815</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -23137,10 +22539,8 @@
           <t>3726869025</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:28:15</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44155.60295138889</v>
       </c>
       <c r="I309" t="n">
         <v>3</v>
@@ -23204,10 +22604,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:28:04</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44155.60282407407</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -23275,10 +22673,8 @@
           <t>3726868779</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:27:57</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44155.60274305556</v>
       </c>
       <c r="I311" t="n">
         <v>1</v>
@@ -23346,10 +22742,8 @@
           <t>3726877542</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:27:38</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44155.60252314815</v>
       </c>
       <c r="I312" t="n">
         <v>1</v>
@@ -23421,10 +22815,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:27:22</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44155.60233796296</v>
       </c>
       <c r="I313" t="n">
         <v>12</v>
@@ -23492,10 +22884,8 @@
           <t>3726868327</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:27:21</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44155.60232638889</v>
       </c>
       <c r="I314" t="n">
         <v>3</v>
@@ -23576,10 +22966,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:27:17</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44155.60228009259</v>
       </c>
       <c r="I315" t="n">
         <v>156</v>
@@ -23647,10 +23035,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:27:12</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44155.60222222222</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23726,10 +23112,8 @@
           <t>3726867786</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:26:39</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44155.60184027778</v>
       </c>
       <c r="I317" t="n">
         <v>1</v>
@@ -23793,10 +23177,8 @@
           <t>3726871694</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:26:20</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44155.60162037037</v>
       </c>
       <c r="I318" t="n">
         <v>1</v>
@@ -23864,10 +23246,8 @@
           <t>3726850885</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:26:13</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44155.60153935185</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23927,10 +23307,8 @@
           <t>3726861004</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:26:08</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44155.60148148148</v>
       </c>
       <c r="I320" t="n">
         <v>5</v>
@@ -23998,10 +23376,8 @@
           <t>3726876119</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:25:45</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44155.60121527778</v>
       </c>
       <c r="I321" t="n">
         <v>5</v>
@@ -24078,10 +23454,8 @@
           <t>3726875646</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:25:08</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44155.60078703704</v>
       </c>
       <c r="I322" t="n">
         <v>8</v>
@@ -24153,10 +23527,8 @@
           <t>3726836700</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:24:44</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44155.60050925926</v>
       </c>
       <c r="I323" t="n">
         <v>8</v>
@@ -24220,10 +23592,8 @@
           <t>3726836700</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:24:19</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44155.60021990741</v>
       </c>
       <c r="I324" t="n">
         <v>2</v>
@@ -24299,10 +23669,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:24:18</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44155.60020833334</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24370,10 +23738,8 @@
           <t>3726865858</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:24:06</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44155.60006944444</v>
       </c>
       <c r="I326" t="n">
         <v>2</v>
@@ -24449,10 +23815,8 @@
           <t>3726865820</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:24:03</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44155.60003472222</v>
       </c>
       <c r="I327" t="n">
         <v>1</v>
@@ -24524,10 +23888,8 @@
           <t>3726864379</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:23:20</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44155.59953703704</v>
       </c>
       <c r="I328" t="n">
         <v>3</v>
@@ -24595,10 +23957,8 @@
           <t>3726836700</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:22:21</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44155.59885416667</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24666,10 +24026,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:22:11</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44155.59873842593</v>
       </c>
       <c r="I330" t="n">
         <v>4</v>
@@ -24745,10 +24103,8 @@
           <t>3726836700</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:21:57</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44155.59857638889</v>
       </c>
       <c r="I331" t="n">
         <v>25</v>
@@ -24824,10 +24180,8 @@
           <t>3726862985</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:21:56</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44155.59856481481</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24903,10 +24257,8 @@
           <t>3726854087</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:21:50</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44155.59849537037</v>
       </c>
       <c r="I333" t="n">
         <v>1</v>
@@ -24978,10 +24330,8 @@
           <t>3726862985</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:21:36</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44155.59833333334</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -25057,10 +24407,8 @@
           <t>3726862952</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:21:34</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44155.59831018518</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -25132,10 +24480,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:20:42</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44155.59770833333</v>
       </c>
       <c r="I336" t="n">
         <v>2</v>
@@ -25208,10 +24554,8 @@
           <t>3726857137</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:20:36</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44155.59763888889</v>
       </c>
       <c r="I337" t="n">
         <v>1</v>
@@ -25287,10 +24631,8 @@
           <t>3726845715</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:19:31</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44155.59688657407</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25350,10 +24692,8 @@
           <t>3726861015</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:19:10</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44155.59664351852</v>
       </c>
       <c r="I339" t="n">
         <v>1</v>
@@ -25425,10 +24765,8 @@
           <t>3726861004</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:19:09</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44155.59663194444</v>
       </c>
       <c r="I340" t="n">
         <v>7</v>
@@ -25501,10 +24839,8 @@
           <t>3726855990</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:19:01</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44155.59653935185</v>
       </c>
       <c r="I341" t="n">
         <v>5</v>
@@ -25580,10 +24916,8 @@
           <t>3726851422</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:18:31</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44155.59619212963</v>
       </c>
       <c r="I342" t="n">
         <v>1</v>
@@ -25651,10 +24985,8 @@
           <t>3726843327</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:18:11</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44155.59596064815</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25732,10 +25064,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:17:56</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44155.59578703704</v>
       </c>
       <c r="I344" t="n">
         <v>81</v>
@@ -25803,10 +25133,8 @@
           <t>3726850885</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:17:50</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44155.59571759259</v>
       </c>
       <c r="I345" t="n">
         <v>11</v>
@@ -25879,10 +25207,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:17:14</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44155.59530092592</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25960,10 +25286,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:16:45</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44155.59496527778</v>
       </c>
       <c r="I347" t="n">
         <v>49</v>
@@ -26036,10 +25360,8 @@
           <t>3726846314</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:16:34</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44155.59483796296</v>
       </c>
       <c r="I348" t="n">
         <v>1</v>
@@ -26115,10 +25437,8 @@
           <t>3726839870</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:16:32</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44155.59481481482</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -26186,10 +25506,8 @@
           <t>3726843327</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:15:23</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44155.5940162037</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -26253,10 +25571,8 @@
           <t>3726843259</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:15:18</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44155.59395833333</v>
       </c>
       <c r="I351" t="n">
         <v>1</v>
@@ -26328,10 +25644,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:14:54</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44155.59368055555</v>
       </c>
       <c r="I352" t="n">
         <v>1</v>
@@ -26391,10 +25705,8 @@
           <t>3726846314</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:14:50</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44155.59363425926</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26458,10 +25770,8 @@
           <t>3726838390</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:14:48</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44155.59361111111</v>
       </c>
       <c r="I354" t="n">
         <v>1</v>
@@ -26537,10 +25847,8 @@
           <t>3726838310</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:14:41</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44155.59353009259</v>
       </c>
       <c r="I355" t="n">
         <v>1</v>
@@ -26616,10 +25924,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:14:30</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44155.59340277778</v>
       </c>
       <c r="I356" t="n">
         <v>26</v>
@@ -26683,10 +25989,8 @@
           <t>3726838073</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:14:22</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44155.59331018518</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26754,10 +26058,8 @@
           <t>3726846908</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:14:13</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44155.59320601852</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26821,10 +26123,8 @@
           <t>3726829262</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:14:10</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44155.5931712963</v>
       </c>
       <c r="I359" t="n">
         <v>1</v>
@@ -26888,10 +26188,8 @@
           <t>3726846851</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:14:09</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44155.59315972222</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26951,10 +26249,8 @@
           <t>3726837617</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:13:48</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44155.59291666667</v>
       </c>
       <c r="I361" t="n">
         <v>2</v>
@@ -27030,10 +26326,8 @@
           <t>3726846314</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:13:28</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44155.59268518518</v>
       </c>
       <c r="I362" t="n">
         <v>1</v>
@@ -27109,10 +26403,8 @@
           <t>3726818029</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:13:11</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44155.59248842593</v>
       </c>
       <c r="I363" t="n">
         <v>1</v>
@@ -27184,10 +26476,8 @@
           <t>3726841437</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:12:48</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44155.59222222222</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -27251,10 +26541,8 @@
           <t>3726845715</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:12:44</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44155.59217592593</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -27314,10 +26602,8 @@
           <t>3726836700</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:12:43</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44155.59216435185</v>
       </c>
       <c r="I366" t="n">
         <v>311</v>
@@ -27381,10 +26667,8 @@
           <t>3726845642</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:12:39</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44155.59211805555</v>
       </c>
       <c r="I367" t="n">
         <v>1</v>
@@ -27460,10 +26744,8 @@
           <t>3726841137</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:12:24</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44155.59194444444</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -27527,10 +26809,8 @@
           <t>3726845267</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:12:11</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44155.59179398148</v>
       </c>
       <c r="I369" t="n">
         <v>3</v>
@@ -27602,10 +26882,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:11:57</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44155.59163194444</v>
       </c>
       <c r="I370" t="n">
         <v>3</v>
@@ -27673,10 +26951,8 @@
           <t>3726845048</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:11:54</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44155.59159722222</v>
       </c>
       <c r="I371" t="n">
         <v>3</v>
@@ -27752,10 +27028,8 @@
           <t>3726836039</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:11:52</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44155.59157407407</v>
       </c>
       <c r="I372" t="n">
         <v>1</v>
@@ -27819,10 +27093,8 @@
           <t>3726840413</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:11:27</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44155.59128472222</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27890,10 +27162,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:11:18</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44155.59118055556</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -27957,10 +27227,8 @@
           <t>3726834282</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:10:58</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44155.59094907407</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -28024,10 +27292,8 @@
           <t>3726833842</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:10:29</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44155.59061342593</v>
       </c>
       <c r="I376" t="n">
         <v>1</v>
@@ -28099,10 +27365,8 @@
           <t>3726824762</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:10:22</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44155.5905324074</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -28174,10 +27438,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:10:17</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44155.59047453704</v>
       </c>
       <c r="I378" t="n">
         <v>77</v>
@@ -28253,10 +27515,8 @@
           <t>3726833583</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:10:11</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44155.59040509259</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -28324,10 +27584,8 @@
           <t>3726824568</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:10:09</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44155.59038194444</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -28391,10 +27649,8 @@
           <t>3726833499</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:10:05</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44155.59033564815</v>
       </c>
       <c r="I381" t="n">
         <v>2</v>
@@ -28466,10 +27722,8 @@
           <t>3726829295</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:10:05</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44155.59033564815</v>
       </c>
       <c r="I382" t="n">
         <v>3</v>
@@ -28545,10 +27799,8 @@
           <t>3726824501</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:10:04</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44155.59032407407</v>
       </c>
       <c r="I383" t="n">
         <v>57</v>
@@ -28617,10 +27869,8 @@
           <t>3726829262</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:10:03</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44155.5903125</v>
       </c>
       <c r="I384" t="n">
         <v>109</v>
@@ -28692,10 +27942,8 @@
           <t>3726833443</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:10:01</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44155.59028935185</v>
       </c>
       <c r="I385" t="n">
         <v>2</v>
@@ -28771,10 +28019,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:09:59</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44155.5902662037</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28846,10 +28092,8 @@
           <t>3726823815</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:09:11</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44155.58971064815</v>
       </c>
       <c r="I387" t="n">
         <v>1</v>
@@ -28925,10 +28169,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:08:23</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44155.5891550926</v>
       </c>
       <c r="I388" t="n">
         <v>3</v>
@@ -29000,10 +28242,8 @@
           <t>3726832084</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:08:22</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44155.58914351852</v>
       </c>
       <c r="I389" t="n">
         <v>1</v>
@@ -29089,10 +28329,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:08:15</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44155.5890625</v>
       </c>
       <c r="I390" t="n">
         <v>37</v>
@@ -29156,10 +28394,8 @@
           <t>3726827647</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:07:57</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44155.58885416666</v>
       </c>
       <c r="I391" t="n">
         <v>1</v>
@@ -29230,10 +28466,8 @@
           <t>3726827499</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:07:46</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44155.58872685185</v>
       </c>
       <c r="I392" t="n">
         <v>2</v>
@@ -29309,10 +28543,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:07:41</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44155.58866898148</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -29380,10 +28612,8 @@
           <t>3726827373</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:07:38</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44155.58863425926</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -29451,10 +28681,8 @@
           <t>3726830730</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:06:49</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44155.58806712963</v>
       </c>
       <c r="I395" t="n">
         <v>2</v>
@@ -29530,10 +28758,8 @@
           <t>3726826298</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:06:18</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44155.58770833333</v>
       </c>
       <c r="I396" t="n">
         <v>2</v>
@@ -29609,10 +28835,8 @@
           <t>3726826220</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:06:12</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44155.58763888889</v>
       </c>
       <c r="I397" t="n">
         <v>1</v>
@@ -29690,10 +28914,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:06:03</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44155.58753472222</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29761,10 +28983,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:05:44</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44155.58731481482</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
@@ -29837,10 +29057,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:05:29</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44155.5871412037</v>
       </c>
       <c r="I400" t="n">
         <v>70</v>
@@ -29908,10 +29126,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:05:26</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44155.58710648148</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29987,10 +29203,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:05:23</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44155.58707175926</v>
       </c>
       <c r="I402" t="n">
         <v>2</v>
@@ -30062,10 +29276,8 @@
           <t>3726819517</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:05:23</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44155.58707175926</v>
       </c>
       <c r="I403" t="n">
         <v>2</v>
@@ -30129,10 +29341,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:05:14</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44155.58696759259</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -30200,10 +29410,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:05:12</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44155.58694444445</v>
       </c>
       <c r="I405" t="n">
         <v>34</v>
@@ -30271,10 +29479,8 @@
           <t>3726825415</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:05:10</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44155.58692129629</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -30342,10 +29548,8 @@
           <t>3726825317</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:05:03</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44155.58684027778</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -30413,10 +29617,8 @@
           <t>3726818029</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:04:32</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44155.58648148148</v>
       </c>
       <c r="I408" t="n">
         <v>1</v>
@@ -30492,10 +29694,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:04:28</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44155.58643518519</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30563,10 +29763,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:04:10</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44155.58622685185</v>
       </c>
       <c r="I410" t="n">
         <v>3</v>
@@ -30642,10 +29840,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:04:10</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44155.58622685185</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30721,10 +29917,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:04:10</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44155.58622685185</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30792,10 +29986,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:04:04</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44155.58615740741</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -30867,10 +30059,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:04:01</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44155.58612268518</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -30938,10 +30128,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:03:58</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44155.58608796296</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -31017,10 +30205,8 @@
           <t>3726818290</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:03:51</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44155.58600694445</v>
       </c>
       <c r="I416" t="n">
         <v>1</v>
@@ -31096,10 +30282,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:03:47</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44155.58596064815</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -31171,10 +30355,8 @@
           <t>3726814300</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:03:38</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44155.58585648148</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -31238,10 +30420,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:03:37</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44155.58584490741</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -31317,10 +30497,8 @@
           <t>3726818029</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:03:31</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44155.58577546296</v>
       </c>
       <c r="I420" t="n">
         <v>1</v>
@@ -31396,10 +30574,8 @@
           <t>3726809077</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:03:27</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44155.58572916667</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -31471,10 +30647,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:03:15</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44155.58559027778</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -31542,10 +30716,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:03:15</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44155.58559027778</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31617,10 +30789,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:03:07</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44155.58549768518</v>
       </c>
       <c r="I424" t="n">
         <v>7</v>
@@ -31696,10 +30866,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:03:04</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44155.58546296296</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31777,10 +30945,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:02:38</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44155.58516203704</v>
       </c>
       <c r="I426" t="n">
         <v>1</v>
@@ -31856,10 +31022,8 @@
           <t>3726817244</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:02:36</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44155.58513888889</v>
       </c>
       <c r="I427" t="n">
         <v>1</v>
@@ -31935,10 +31099,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:02:30</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44155.58506944445</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -32002,10 +31164,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:02:15</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44155.58489583333</v>
       </c>
       <c r="I429" t="n">
         <v>2</v>
@@ -32077,10 +31237,8 @@
           <t>3726816862</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:02:09</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44155.58482638889</v>
       </c>
       <c r="I430" t="n">
         <v>1</v>
@@ -32152,10 +31310,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:02:07</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44155.58480324074</v>
       </c>
       <c r="I431" t="n">
         <v>84</v>
@@ -32223,10 +31379,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:01:27</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44155.58434027778</v>
       </c>
       <c r="I432" t="n">
         <v>18</v>
@@ -32290,10 +31444,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:01:19</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44155.58424768518</v>
       </c>
       <c r="I433" t="n">
         <v>15</v>
@@ -32365,10 +31517,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:01:15</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44155.58420138889</v>
       </c>
       <c r="I434" t="n">
         <v>307</v>
@@ -32444,10 +31594,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:01:09</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44155.58413194444</v>
       </c>
       <c r="I435" t="n">
         <v>7</v>
@@ -32511,10 +31659,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:01:05</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44155.58408564814</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -32578,10 +31724,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:01:05</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44155.58408564814</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
@@ -32653,10 +31797,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:01:04</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44155.58407407408</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
@@ -32720,10 +31862,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:01:04</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44155.58407407408</v>
       </c>
       <c r="I439" t="n">
         <v>1662</v>
@@ -32791,10 +31931,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:01:04</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44155.58407407408</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -32870,10 +32008,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:01:02</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44155.58405092593</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
@@ -32941,10 +32077,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:00:51</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44155.58392361111</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
@@ -33020,10 +32154,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:00:51</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44155.58392361111</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
@@ -33099,10 +32231,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:00:50</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44155.58391203704</v>
       </c>
       <c r="I444" t="n">
         <v>1</v>
@@ -33178,10 +32308,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:00:48</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44155.58388888889</v>
       </c>
       <c r="I445" t="n">
         <v>3</v>
@@ -33245,10 +32373,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:00:48</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44155.58388888889</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
@@ -33324,10 +32450,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:00:47</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44155.58387731481</v>
       </c>
       <c r="I447" t="n">
         <v>3</v>
@@ -33403,10 +32527,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:00:45</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44155.58385416667</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
@@ -33482,10 +32604,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:00:42</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44155.58381944444</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
@@ -33561,10 +32681,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:00:31</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44155.58369212963</v>
       </c>
       <c r="I450" t="n">
         <v>1</v>
@@ -33636,10 +32754,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:00:27</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44155.58364583334</v>
       </c>
       <c r="I451" t="n">
         <v>1</v>
@@ -33715,10 +32831,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:00:20</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44155.58356481481</v>
       </c>
       <c r="I452" t="n">
         <v>264</v>
